--- a/media/proces/aleadmin2024.xlsx
+++ b/media/proces/aleadmin2024.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -476,10 +480,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45846</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,3515 +520,3457 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-07-19</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45847</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45853</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>239</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>259</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>238</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45857</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>229</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45858</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2026-01-04</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>318</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>348</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2026-01-03</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45861</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>133</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>189</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>209</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>198</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>218</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45864</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>238</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45865</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45867</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>114</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-12-27</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45868</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45869</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>248</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45870</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>199</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>219</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45871</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>209</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45872</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45873</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>219</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-12-21</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45874</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>45875</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>228</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>248</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45876</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>189</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>45877</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>219</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>45878</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>229</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>249</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>45879</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>45880</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-12-14</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>45881</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-12-13</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>45882</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>45883</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>45884</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>219</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-12-10</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>45885</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>229</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>249</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-12-09</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>45886</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>159</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>45887</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>159</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-12-07</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>45888</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-12-06</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>45889</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-12-05</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>45890</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>189</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>45891</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>199</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>219</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>45892</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>209</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>229</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>45893</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>45894</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>169</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-30</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>45895</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>199</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-11-29</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>45896</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>219</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>45897</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>399</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>389</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>389</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>499</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>499</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>45898</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>529</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>529</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>529</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>599</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>599</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>45899</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>489</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>489</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>499</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>599</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>599</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>45900</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>249</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>270</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>399</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>399</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>45901</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>226</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>379</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>399</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-23</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>45902</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>137</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>288</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>315</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-11-22</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>45903</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>305</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-11-21</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>45904</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>129</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>270</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>295</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>45905</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>277</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>303</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>45906</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>134</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>154</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>159</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>281</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>307</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>45907</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>119</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>141</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>249</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>272</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>45908</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>266</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>291</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-11-16</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45909</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45910</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>289</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>309</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45911</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>332</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>364</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45912</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>339</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>371</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45913</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>343</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45914</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>247</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>270</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45915</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>260</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>284</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-11-09</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45916</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>190</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>336</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>368</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-11-08</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45917</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>345</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-11-07</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>45918</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>299</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-11-06</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>45919</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>419</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>449</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>45920</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>342</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>45921</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>139</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>245</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>268</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>45922</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>305</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>45923</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>309</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>338</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2025-10-29</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>45924</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>321</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>45925</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>328</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>45926</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>309</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>338</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>45927</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>45928</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>338</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-10-21</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>45929</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>239</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>284</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>502</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>549</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>45930</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>452</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>550</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>750</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>750</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-10-19</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>45931</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>452</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>750</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>750</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-10-18</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>45932</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>278</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>299</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>319</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>385</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-10-17</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>369</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>404</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-10-16</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>367</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>45935</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>298</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>327</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2025-10-14</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>45936</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>334</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>357</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>391</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-10-12</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>333</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>365</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>45939</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>45940</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>45941</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>341</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>373</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>45942</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>45943</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4036,12 +3980,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4056,3602 +4000,3276 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>197</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>359</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>394</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>45945</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>357</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>391</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>45946</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>338</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>45947</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>345</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2025-09-28</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>45948</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>345</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>45949</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>296</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2025-09-26</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>45950</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>345</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>45951</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>355</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>388</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>45952</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>338</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>45953</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>322</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2025-09-22</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>45954</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>353</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>386</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025-09-21</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>45955</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>409</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>448</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>45956</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>291</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>319</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-09-17</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>45957</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>312</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>342</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025-09-16</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>45958</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>45959</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>327</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>358</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>45960</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>188</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>45961</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>45962</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2025-09-06</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>45963</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>311</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>341</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>45964</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>344</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>377</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>45965</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>178</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>45966</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>389</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>426</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>45967</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>358</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>392</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2025-08-13</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>45968</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>359</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>393</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>45970</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>328</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2025-07-20</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>362</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>45972</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>348</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>381</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>45973</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>384</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>45974</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>348</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>381</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2025-11-03</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>45975</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>407</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>446</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2025-11-02</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>45976</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>226</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>412</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>451</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>45977</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>387</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>424</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-10-26</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>45978</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>408</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>447</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2025-07-24</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>45979</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>234</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>235</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>455</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>45980</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>235</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>243</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>429</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>470</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>45981</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>207</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>215</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>379</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>415</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2025-07-29</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>45983</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>45984</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>335</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2025-10-25</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>45985</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>158</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>188</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>363</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>45986</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>343</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>45987</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>45988</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>356</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>390</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2025-07-10</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>45989</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>387</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>424</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>45990</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>214</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>377</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>321</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>351</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>45993</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>45994</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2025-09-12</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>186</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>45996</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>386</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>423</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>45997</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>228</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>456</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2025-07-17</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>45998</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>370</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>405</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2025-07-16</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>45999</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>298</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>327</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2025-07-14</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>46000</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>320</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>46001</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>320</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>46002</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2025-07-12</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>46003</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2025-07-25</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>46004</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>346</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2025-07-26</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>46005</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>161</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>284</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>311</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>46006</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>306</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>335</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>46007</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>318</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>347</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>46008</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2025-08-31</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>46009</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2025-08-30</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>46010</v>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>339</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>371</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>46011</v>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>346</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>46012</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>296</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>46013</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>338</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2025-08-26</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>46014</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>361</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>46015</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>361</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2025-08-24</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>46016</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>337</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>358</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2025-08-23</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>46017</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>206</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>377</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2025-08-22</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>46018</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>394</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>432</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2025-08-21</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>46019</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2025-08-20</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>46020</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>365</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>399</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2025-08-19</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>46021</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>175</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>367</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>402</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2025-08-18</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>46022</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>238</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>460</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2025-08-17</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>46023</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>366</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2025-08-16</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>46024</v>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>370</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>405</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>46025</v>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>388</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>425</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2025-08-14</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>46026</v>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>334</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>365</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2025-08-12</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>46027</v>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2025-08-11</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>46028</v>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>351</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>385</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2025-08-10</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>46029</v>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2025-08-09</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>46030</v>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>46031</v>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2025-08-07</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>46032</v>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>366</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2025-08-06</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>46033</v>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>46034</v>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2025-08-04</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>46035</v>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2025-08-03</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>46036</v>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2025-08-02</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>46037</v>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>46038</v>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/proces/aleadmin2024.xlsx
+++ b/media/proces/aleadmin2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,2807 +481,2811 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+        <v>45913</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>343</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847</v>
+        <v>45914</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>247</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>270</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45848</v>
+        <v>45915</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>260</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>284</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45849</v>
+        <v>45916</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>184</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>190</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>336</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>368</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45850</v>
+        <v>45917</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>345</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45851</v>
+        <v>45918</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45852</v>
+        <v>45919</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>419</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>449</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45853</v>
+        <v>45920</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45854</v>
+        <v>45921</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>139</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>245</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>268</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45855</v>
+        <v>45922</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>305</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45856</v>
+        <v>45923</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>338</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45857</v>
+        <v>45924</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>321</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45858</v>
+        <v>45925</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>328</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45859</v>
+        <v>45926</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>338</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45860</v>
+        <v>45927</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45861</v>
+        <v>45928</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>309</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>338</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45862</v>
+        <v>45929</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>239</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>284</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>502</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>549</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45863</v>
+        <v>45930</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>452</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>550</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>750</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>750</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45864</v>
+        <v>45931</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>452</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>750</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>750</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45865</v>
+        <v>45932</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>278</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>299</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>319</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>385</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45866</v>
+        <v>45933</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>369</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>404</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45867</v>
+        <v>45934</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>367</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45868</v>
+        <v>45935</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>298</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>327</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45869</v>
+        <v>45936</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>334</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45870</v>
+        <v>45937</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>357</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>391</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45871</v>
+        <v>45938</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>333</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>365</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45872</v>
+        <v>45939</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45873</v>
+        <v>45940</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45874</v>
+        <v>45941</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>341</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>373</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45875</v>
+        <v>45942</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45876</v>
+        <v>45943</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>334</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45877</v>
+        <v>45944</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>197</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>359</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>394</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45878</v>
+        <v>45945</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>357</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>391</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45879</v>
+        <v>45946</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>338</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45880</v>
+        <v>45947</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>345</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45881</v>
+        <v>45948</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>345</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45882</v>
+        <v>45949</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>296</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45883</v>
+        <v>45950</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>178</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>345</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45884</v>
+        <v>45951</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>355</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>388</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45885</v>
+        <v>45952</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>338</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>370</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45886</v>
+        <v>45953</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>176</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>322</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>352</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45887</v>
+        <v>45954</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>353</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>386</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45888</v>
+        <v>45955</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>409</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>448</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45889</v>
+        <v>45956</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>291</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>319</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45890</v>
+        <v>45957</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>171</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>312</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>342</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45891</v>
+        <v>45958</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45892</v>
+        <v>45959</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>327</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>358</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45893</v>
+        <v>45960</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>188</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45894</v>
+        <v>45961</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45895</v>
+        <v>45962</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45896</v>
+        <v>45963</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>311</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>341</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45897</v>
+        <v>45964</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>344</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>377</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45898</v>
+        <v>45965</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>178</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45899</v>
+        <v>45966</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>213</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>389</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>426</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45900</v>
+        <v>45967</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>358</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>392</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45901</v>
+        <v>45968</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45902</v>
+        <v>45969</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>359</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>393</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45903</v>
+        <v>45970</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>328</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45904</v>
+        <v>45971</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>362</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45905</v>
+        <v>45972</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>348</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>381</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45906</v>
+        <v>45973</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>384</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45907</v>
+        <v>45974</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>348</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>381</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45908</v>
+        <v>45975</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>407</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>446</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45909</v>
+        <v>45976</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>226</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>412</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>451</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45910</v>
+        <v>45977</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>387</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>424</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45911</v>
+        <v>45978</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>408</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>447</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45912</v>
+        <v>45979</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>234</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>235</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>415</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>455</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45913</v>
+        <v>45980</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>235</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>243</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>429</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>470</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45914</v>
+        <v>45981</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>207</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>215</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>379</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>415</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45915</v>
+        <v>45982</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>211</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>408</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45916</v>
+        <v>45983</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45917</v>
+        <v>45984</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>335</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45918</v>
+        <v>45985</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>158</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>188</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>363</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45919</v>
+        <v>45986</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>195</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>343</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45920</v>
+        <v>45987</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>358</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>393</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45921</v>
+        <v>45988</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>356</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>390</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45922</v>
+        <v>45989</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>387</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>424</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45923</v>
+        <v>45990</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>214</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>377</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45924</v>
+        <v>45991</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
@@ -3311,769 +3315,769 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>351</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45925</v>
+        <v>45992</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45926</v>
+        <v>45993</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45927</v>
+        <v>45994</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45928</v>
+        <v>45995</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>329</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45996</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>219</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>386</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>423</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45997</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>228</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>417</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>456</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45998</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>209</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>370</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>405</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45999</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>298</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>327</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45933</v>
+        <v>46000</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>181</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>320</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45934</v>
+        <v>46001</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>320</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45935</v>
+        <v>46002</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>176</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>340</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45936</v>
+        <v>46003</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>355</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45937</v>
+        <v>46004</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>346</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45938</v>
+        <v>46005</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>161</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>284</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>311</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45939</v>
+        <v>46006</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>306</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>335</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45940</v>
+        <v>46007</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>318</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>347</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45941</v>
+        <v>46008</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>186</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45942</v>
+        <v>46009</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>157</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45943</v>
+        <v>46010</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>339</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>371</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45944</v>
+        <v>46011</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>196</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>346</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>379</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45945</v>
+        <v>46012</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>296</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45946</v>
+        <v>46013</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
@@ -4093,7 +4097,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4109,3167 +4113,915 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45947</v>
+        <v>46014</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>361</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45948</v>
+        <v>46015</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>361</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45949</v>
+        <v>46016</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>179</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>337</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>358</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45950</v>
+        <v>46017</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>206</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>377</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>413</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45951</v>
+        <v>46018</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>224</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>394</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>432</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45952</v>
+        <v>46019</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45953</v>
+        <v>46020</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>365</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>399</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45954</v>
+        <v>46021</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>175</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>367</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>402</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45955</v>
+        <v>46022</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>238</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>460</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45956</v>
+        <v>46023</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>366</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45957</v>
+        <v>46024</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>370</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>405</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45958</v>
+        <v>46025</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>388</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>425</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45959</v>
+        <v>46026</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>183</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>334</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>365</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45960</v>
+        <v>46027</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>383</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45961</v>
+        <v>46028</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>351</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>385</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45962</v>
+        <v>46029</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45963</v>
+        <v>46030</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>347</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45964</v>
+        <v>46031</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>361</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45965</v>
+        <v>46032</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>201</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>366</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>401</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45966</v>
+        <v>46033</v>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45967</v>
+        <v>46034</v>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>392</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45968</v>
+        <v>46035</v>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45969</v>
+        <v>46036</v>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>359</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45970</v>
+        <v>46037</v>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B127" t="inlineStr"/>
+        <v>46038</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>155</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45972</v>
+        <v>46039</v>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
+        <v>46054</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>219</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>239</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B130" t="inlineStr"/>
+        <v>46055</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>138</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>238</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>258</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45975</v>
+        <v>46069</v>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>407</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45976</v>
+        <v>46070</v>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>45977</v>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>45981</v>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>45982</v>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>45983</v>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>45984</v>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>45986</v>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>45988</v>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>45989</v>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>45991</v>
-      </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>45992</v>
-      </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>45993</v>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>45995</v>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>45996</v>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>417</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>45998</v>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>327</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>46000</v>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>46002</v>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>46003</v>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>46004</v>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>46005</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>46006</v>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>46007</v>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>46008</v>
-      </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>46009</v>
-      </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>46010</v>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>46011</v>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>46012</v>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>46013</v>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>46014</v>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>46015</v>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>46017</v>
-      </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>46018</v>
-      </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>46019</v>
-      </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>46020</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>46021</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>402</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>46022</v>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>46023</v>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>366</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>401</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>46024</v>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>46025</v>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>46026</v>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>46027</v>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>46028</v>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>46029</v>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>46030</v>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>46031</v>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>46032</v>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>366</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>401</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>46033</v>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>46034</v>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>46035</v>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
-        <v>46036</v>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>46037</v>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>46038</v>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
